--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
@@ -184,7 +184,7 @@
     <t xml:space="preserve">formType</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -426,10 +426,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BI11"/>
+  <dimension ref="A1:BG11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -936,8 +936,6 @@
       <c r="BE3" s="2"/>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
-      <c r="BH3" s="0"/>
-      <c r="BI3" s="0"/>
     </row>
     <row r="4" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
@@ -1081,8 +1079,6 @@
       <c r="BE4" s="2"/>
       <c r="BF4" s="2"/>
       <c r="BG4" s="2"/>
-      <c r="BH4" s="0"/>
-      <c r="BI4" s="0"/>
     </row>
     <row r="5" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
@@ -1226,8 +1222,6 @@
       <c r="BE5" s="2"/>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
-      <c r="BH5" s="0"/>
-      <c r="BI5" s="0"/>
     </row>
     <row r="6" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -1371,8 +1365,6 @@
       <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
-      <c r="BH6" s="0"/>
-      <c r="BI6" s="0"/>
     </row>
     <row r="7" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -1516,8 +1508,6 @@
       <c r="BE7" s="2"/>
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
-      <c r="BH7" s="0"/>
-      <c r="BI7" s="0"/>
     </row>
     <row r="8" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
@@ -1661,8 +1651,6 @@
       <c r="BE8" s="2"/>
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
-      <c r="BH8" s="0"/>
-      <c r="BI8" s="0"/>
     </row>
     <row r="9" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -1806,8 +1794,6 @@
       <c r="BE9" s="2"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
-      <c r="BH9" s="0"/>
-      <c r="BI9" s="0"/>
     </row>
     <row r="10" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
@@ -1951,8 +1937,6 @@
       <c r="BE10" s="2"/>
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
-      <c r="BH10" s="0"/>
-      <c r="BI10" s="0"/>
     </row>
     <row r="11" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
@@ -2096,8 +2080,6 @@
       <c r="BE11" s="2"/>
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
-      <c r="BH11" s="0"/>
-      <c r="BI11" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BF260A-5F19-4135-9989-4E7F1AD9A0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E6AC3D-59EE-4093-A133-E9513D51E1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -306,7 +306,7 @@
     <t>Auto_TC6_AT5000010</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -673,7 +673,7 @@
   <dimension ref="A1:BI11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E6AC3D-59EE-4093-A133-E9513D51E1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F248D1-345D-474C-9372-082DC55D95E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
     <t>Auto_TC6_AT5000010</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F248D1-345D-474C-9372-082DC55D95E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07184FAA-C642-4E62-9A69-DE8FD68ED402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="95">
   <si>
     <t>creationDate</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -672,8 +675,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BI11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1018,7 +1021,7 @@
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
       <c r="AX2" s="3" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="AY2" s="2" t="s">
         <v>61</v>
@@ -1160,9 +1163,7 @@
       <c r="AU3" s="1"/>
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
-      <c r="AX3" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="AX3" s="3"/>
       <c r="AY3" s="2" t="s">
         <v>61</v>
       </c>
@@ -1303,9 +1304,7 @@
       <c r="AU4" s="1"/>
       <c r="AV4" s="2"/>
       <c r="AW4" s="2"/>
-      <c r="AX4" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="AX4" s="3"/>
       <c r="AY4" s="2" t="s">
         <v>61</v>
       </c>
@@ -1446,9 +1445,7 @@
       <c r="AU5" s="1"/>
       <c r="AV5" s="2"/>
       <c r="AW5" s="2"/>
-      <c r="AX5" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="AX5" s="3"/>
       <c r="AY5" s="2" t="s">
         <v>61</v>
       </c>
@@ -1589,9 +1586,7 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
-      <c r="AX6" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="AX6" s="3"/>
       <c r="AY6" s="2" t="s">
         <v>61</v>
       </c>
@@ -1732,9 +1727,7 @@
       <c r="AU7" s="1"/>
       <c r="AV7" s="2"/>
       <c r="AW7" s="2"/>
-      <c r="AX7" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="AX7" s="3"/>
       <c r="AY7" s="2" t="s">
         <v>61</v>
       </c>
@@ -1875,9 +1868,7 @@
       <c r="AU8" s="1"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
-      <c r="AX8" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="AX8" s="3"/>
       <c r="AY8" s="2" t="s">
         <v>61</v>
       </c>
@@ -2018,9 +2009,7 @@
       <c r="AU9" s="1"/>
       <c r="AV9" s="2"/>
       <c r="AW9" s="2"/>
-      <c r="AX9" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="AX9" s="3"/>
       <c r="AY9" s="2" t="s">
         <v>61</v>
       </c>
@@ -2161,9 +2150,7 @@
       <c r="AU10" s="1"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
-      <c r="AX10" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="AX10" s="3"/>
       <c r="AY10" s="2" t="s">
         <v>61</v>
       </c>
@@ -2304,9 +2291,7 @@
       <c r="AU11" s="1"/>
       <c r="AV11" s="2"/>
       <c r="AW11" s="2"/>
-      <c r="AX11" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="AX11" s="3"/>
       <c r="AY11" s="2" t="s">
         <v>61</v>
       </c>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07184FAA-C642-4E62-9A69-DE8FD68ED402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D62BA6-13C7-4833-90DD-B2E91587C534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -306,10 +306,10 @@
     <t>Auto_TC6_AT5000010</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -901,7 +901,7 @@
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>54</v>
@@ -1021,7 +1021,7 @@
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
       <c r="AX2" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AY2" s="2" t="s">
         <v>61</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="3" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>54</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="4" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>54</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="5" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>54</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="6" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>54</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="7" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>54</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="8" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>54</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="9" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>54</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="10" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>54</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="11" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>54</v>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D62BA6-13C7-4833-90DD-B2E91587C534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAA047C-42F7-415E-AD6C-AA7CBDCE1EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="3225" windowHeight="2925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -675,62 +675,61 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BI11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1"/>
+    <col min="34" max="35" width="8.7109375" style="1" customWidth="1"/>
     <col min="36" max="43" width="9" style="1" customWidth="1"/>
     <col min="44" max="45" width="10" style="1" customWidth="1"/>
-    <col min="46" max="46" width="10.109375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="10.140625" style="1" customWidth="1"/>
     <col min="47" max="47" width="10" style="1" customWidth="1"/>
-    <col min="48" max="48" width="12.77734375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="14.44140625" style="1" customWidth="1"/>
-    <col min="50" max="50" width="11.6640625" style="1" customWidth="1"/>
-    <col min="51" max="51" width="17.21875" style="1" customWidth="1"/>
-    <col min="52" max="52" width="18.44140625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="10.21875" style="1" customWidth="1"/>
-    <col min="54" max="54" width="8.77734375" style="1" customWidth="1"/>
-    <col min="55" max="59" width="2.6640625" style="1"/>
-    <col min="62" max="16384" width="2.6640625" style="1"/>
+    <col min="48" max="48" width="12.7109375" style="1" customWidth="1"/>
+    <col min="49" max="49" width="14.42578125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="11.7109375" style="1" customWidth="1"/>
+    <col min="51" max="51" width="17.28515625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="18.42578125" style="1" customWidth="1"/>
+    <col min="53" max="53" width="10.28515625" style="1" customWidth="1"/>
+    <col min="54" max="54" width="8.7109375" style="1" customWidth="1"/>
+    <col min="55" max="59" width="2.7109375" style="1"/>
+    <col min="62" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -899,7 +898,7 @@
       <c r="BF1" s="2"/>
       <c r="BG1" s="2"/>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
@@ -1041,7 +1040,7 @@
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
     </row>
-    <row r="3" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>94</v>
       </c>
@@ -1182,7 +1181,7 @@
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
     </row>
-    <row r="4" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>94</v>
       </c>
@@ -1323,7 +1322,7 @@
       <c r="BF4" s="2"/>
       <c r="BG4" s="2"/>
     </row>
-    <row r="5" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>94</v>
       </c>
@@ -1464,7 +1463,7 @@
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
     </row>
-    <row r="6" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>94</v>
       </c>
@@ -1605,7 +1604,7 @@
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
     </row>
-    <row r="7" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>94</v>
       </c>
@@ -1746,7 +1745,7 @@
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
     </row>
-    <row r="8" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
@@ -1887,7 +1886,7 @@
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
     </row>
-    <row r="9" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
@@ -2028,7 +2027,7 @@
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
     </row>
-    <row r="10" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>94</v>
       </c>
@@ -2169,7 +2168,7 @@
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
     </row>
-    <row r="11" spans="1:59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>94</v>
       </c>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAA047C-42F7-415E-AD6C-AA7CBDCE1EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EFF329-D98E-4ABC-B83B-8C30F81C0F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="3225" windowHeight="2925" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EFF329-D98E-4ABC-B83B-8C30F81C0F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE073DE6-A2EE-48E7-9D9A-423DBC6B6B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -376,9 +376,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -416,7 +416,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -522,7 +522,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -664,7 +664,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13773244-6178-46C3-8353-FDCA453DB3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63B3D5A-EEDD-43E6-A774-A609472F02AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="95">
   <si>
     <t>creationDate</t>
   </si>
@@ -309,7 +309,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -333,7 +333,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -381,9 +381,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -421,7 +421,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -527,7 +527,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -669,7 +669,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,7 +681,7 @@
   <dimension ref="A1:BI11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="L2" sqref="L2:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,9 +929,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
         <v>61</v>
       </c>
@@ -1071,9 +1069,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
         <v>61</v>
       </c>
@@ -1212,9 +1208,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
         <v>61</v>
       </c>
@@ -1353,9 +1347,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
         <v>61</v>
       </c>
@@ -1494,9 +1486,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
         <v>61</v>
       </c>
@@ -1635,9 +1625,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>61</v>
       </c>
@@ -1776,9 +1764,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
         <v>61</v>
       </c>
@@ -1917,9 +1903,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="L9" s="2"/>
       <c r="M9" s="2" t="s">
         <v>61</v>
       </c>
@@ -2058,9 +2042,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
         <v>61</v>
       </c>
@@ -2199,9 +2181,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="2" t="s">
         <v>61</v>
       </c>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63B3D5A-EEDD-43E6-A774-A609472F02AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D141B5A-B940-46AF-966D-D383744831DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
+++ b/Data Files/Calculate Duty/TypeCode 6/Action Type 5/Auto_GeStamp_TSCD_TC6_AT5_C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D141B5A-B940-46AF-966D-D383744831DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE563F3-3580-4E08-BE7A-A138702698F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
